--- a/toemail.xlsx
+++ b/toemail.xlsx
@@ -14,16 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>邮箱账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xsq804723404@qq.com</t>
+    <t>*********@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tyb52056@163.com</t>
+    <t>********@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -397,22 +398,19 @@
     <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
